--- a/inst/extdata/hmw_analysis_data.xlsx
+++ b/inst/extdata/hmw_analysis_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="hmw_food" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="70">
   <si>
     <t>Regional Male Power Outputs by Industry (W)</t>
   </si>
@@ -263,72 +263,6 @@
     <t>Source: http://www.fao.org/3/a-y5686e.pdf</t>
   </si>
   <si>
-    <t>MW.Region.code</t>
-  </si>
-  <si>
-    <t>MW.Region</t>
-  </si>
-  <si>
-    <t>Exemplar/Method</t>
-  </si>
-  <si>
-    <t>AFR</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>EEU</t>
-  </si>
-  <si>
-    <t>E. Europe</t>
-  </si>
-  <si>
-    <t>WEU</t>
-  </si>
-  <si>
-    <t>W. Europe</t>
-  </si>
-  <si>
-    <t>LAM</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>N. America</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Asia </t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>SE Asia</t>
-  </si>
-  <si>
-    <t>OCN</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>Industry/Activity</t>
   </si>
   <si>
@@ -350,7 +284,7 @@
     <t>Sedentary</t>
   </si>
   <si>
-    <t>W</t>
+    <t>HMW.Region.code</t>
   </si>
 </sst>
 </file>
@@ -537,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,6 +522,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -599,18 +542,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19473,7 +19404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19550,7 +19480,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21554,10 +21483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN61"/>
+  <dimension ref="A1:BL58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21565,1050 +21494,757 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:64" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="29">
+        <v>1960</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1961</v>
+      </c>
+      <c r="G1" s="29">
+        <v>1962</v>
+      </c>
+      <c r="H1" s="29">
+        <v>1963</v>
+      </c>
+      <c r="I1" s="29">
+        <v>1964</v>
+      </c>
+      <c r="J1" s="29">
+        <v>1965</v>
+      </c>
+      <c r="K1" s="29">
+        <v>1966</v>
+      </c>
+      <c r="L1" s="29">
+        <v>1967</v>
+      </c>
+      <c r="M1" s="29">
+        <v>1968</v>
+      </c>
+      <c r="N1" s="29">
+        <v>1969</v>
+      </c>
+      <c r="O1" s="29">
+        <v>1970</v>
+      </c>
+      <c r="P1" s="29">
+        <v>1971</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>1972</v>
+      </c>
+      <c r="R1" s="29">
+        <v>1973</v>
+      </c>
+      <c r="S1" s="29">
+        <v>1974</v>
+      </c>
+      <c r="T1" s="29">
+        <v>1975</v>
+      </c>
+      <c r="U1" s="29">
+        <v>1976</v>
+      </c>
+      <c r="V1" s="29">
+        <v>1977</v>
+      </c>
+      <c r="W1" s="29">
+        <v>1978</v>
+      </c>
+      <c r="X1" s="29">
+        <v>1979</v>
+      </c>
+      <c r="Y1" s="29">
+        <v>1980</v>
+      </c>
+      <c r="Z1" s="29">
+        <v>1981</v>
+      </c>
+      <c r="AA1" s="29">
+        <v>1982</v>
+      </c>
+      <c r="AB1" s="29">
+        <v>1983</v>
+      </c>
+      <c r="AC1" s="29">
+        <v>1984</v>
+      </c>
+      <c r="AD1" s="29">
+        <v>1985</v>
+      </c>
+      <c r="AE1" s="29">
+        <v>1986</v>
+      </c>
+      <c r="AF1" s="29">
+        <v>1987</v>
+      </c>
+      <c r="AG1" s="29">
+        <v>1988</v>
+      </c>
+      <c r="AH1" s="29">
+        <v>1989</v>
+      </c>
+      <c r="AI1" s="29">
+        <v>1990</v>
+      </c>
+      <c r="AJ1" s="29">
+        <v>1991</v>
+      </c>
+      <c r="AK1" s="29">
+        <v>1992</v>
+      </c>
+      <c r="AL1" s="29">
+        <v>1993</v>
+      </c>
+      <c r="AM1" s="29">
+        <v>1994</v>
+      </c>
+      <c r="AN1" s="29">
+        <v>1995</v>
+      </c>
+      <c r="AO1" s="29">
+        <v>1996</v>
+      </c>
+      <c r="AP1" s="29">
+        <v>1997</v>
+      </c>
+      <c r="AQ1" s="29">
+        <v>1998</v>
+      </c>
+      <c r="AR1" s="29">
+        <v>1999</v>
+      </c>
+      <c r="AS1" s="29">
+        <v>2000</v>
+      </c>
+      <c r="AT1" s="29">
+        <v>2001</v>
+      </c>
+      <c r="AU1" s="29">
+        <v>2002</v>
+      </c>
+      <c r="AV1" s="29">
+        <v>2003</v>
+      </c>
+      <c r="AW1" s="29">
+        <v>2004</v>
+      </c>
+      <c r="AX1" s="29">
+        <v>2005</v>
+      </c>
+      <c r="AY1" s="29">
+        <v>2006</v>
+      </c>
+      <c r="AZ1" s="29">
+        <v>2007</v>
+      </c>
+      <c r="BA1" s="29">
+        <v>2008</v>
+      </c>
+      <c r="BB1" s="29">
+        <v>2009</v>
+      </c>
+      <c r="BC1" s="29">
+        <v>2010</v>
+      </c>
+      <c r="BD1" s="29">
+        <v>2011</v>
+      </c>
+      <c r="BE1" s="29">
+        <v>2012</v>
+      </c>
+      <c r="BF1" s="29">
+        <v>2013</v>
+      </c>
+      <c r="BG1" s="29">
+        <v>2014</v>
+      </c>
+      <c r="BH1" s="29">
+        <v>2015</v>
+      </c>
+      <c r="BI1" s="30">
+        <v>2016</v>
+      </c>
+      <c r="BJ1" s="29">
+        <v>2017</v>
+      </c>
+      <c r="BK1" s="29">
+        <v>2018</v>
+      </c>
+      <c r="BL1" s="29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="33">
-        <v>1960</v>
-      </c>
-      <c r="H1" s="33">
-        <v>1961</v>
-      </c>
-      <c r="I1" s="33">
-        <v>1962</v>
-      </c>
-      <c r="J1" s="33">
-        <v>1963</v>
-      </c>
-      <c r="K1" s="33">
-        <v>1964</v>
-      </c>
-      <c r="L1" s="33">
-        <v>1965</v>
-      </c>
-      <c r="M1" s="33">
-        <v>1966</v>
-      </c>
-      <c r="N1" s="33">
-        <v>1967</v>
-      </c>
-      <c r="O1" s="33">
-        <v>1968</v>
-      </c>
-      <c r="P1" s="33">
-        <v>1969</v>
-      </c>
-      <c r="Q1" s="33">
-        <v>1970</v>
-      </c>
-      <c r="R1" s="33">
-        <v>1971</v>
-      </c>
-      <c r="S1" s="33">
-        <v>1972</v>
-      </c>
-      <c r="T1" s="33">
-        <v>1973</v>
-      </c>
-      <c r="U1" s="33">
-        <v>1974</v>
-      </c>
-      <c r="V1" s="33">
-        <v>1975</v>
-      </c>
-      <c r="W1" s="33">
-        <v>1976</v>
-      </c>
-      <c r="X1" s="33">
-        <v>1977</v>
-      </c>
-      <c r="Y1" s="33">
-        <v>1978</v>
-      </c>
-      <c r="Z1" s="33">
-        <v>1979</v>
-      </c>
-      <c r="AA1" s="33">
-        <v>1980</v>
-      </c>
-      <c r="AB1" s="33">
-        <v>1981</v>
-      </c>
-      <c r="AC1" s="33">
-        <v>1982</v>
-      </c>
-      <c r="AD1" s="33">
-        <v>1983</v>
-      </c>
-      <c r="AE1" s="33">
-        <v>1984</v>
-      </c>
-      <c r="AF1" s="33">
-        <v>1985</v>
-      </c>
-      <c r="AG1" s="33">
-        <v>1986</v>
-      </c>
-      <c r="AH1" s="33">
-        <v>1987</v>
-      </c>
-      <c r="AI1" s="33">
-        <v>1988</v>
-      </c>
-      <c r="AJ1" s="33">
-        <v>1989</v>
-      </c>
-      <c r="AK1" s="33">
-        <v>1990</v>
-      </c>
-      <c r="AL1" s="33">
-        <v>1991</v>
-      </c>
-      <c r="AM1" s="33">
-        <v>1992</v>
-      </c>
-      <c r="AN1" s="33">
-        <v>1993</v>
-      </c>
-      <c r="AO1" s="33">
-        <v>1994</v>
-      </c>
-      <c r="AP1" s="33">
-        <v>1995</v>
-      </c>
-      <c r="AQ1" s="33">
-        <v>1996</v>
-      </c>
-      <c r="AR1" s="33">
-        <v>1997</v>
-      </c>
-      <c r="AS1" s="33">
-        <v>1998</v>
-      </c>
-      <c r="AT1" s="33">
-        <v>1999</v>
-      </c>
-      <c r="AU1" s="33">
-        <v>2000</v>
-      </c>
-      <c r="AV1" s="33">
-        <v>2001</v>
-      </c>
-      <c r="AW1" s="33">
-        <v>2002</v>
-      </c>
-      <c r="AX1" s="33">
-        <v>2003</v>
-      </c>
-      <c r="AY1" s="33">
-        <v>2004</v>
-      </c>
-      <c r="AZ1" s="33">
-        <v>2005</v>
-      </c>
-      <c r="BA1" s="33">
-        <v>2006</v>
-      </c>
-      <c r="BB1" s="33">
-        <v>2007</v>
-      </c>
-      <c r="BC1" s="33">
-        <v>2008</v>
-      </c>
-      <c r="BD1" s="33">
-        <v>2009</v>
-      </c>
-      <c r="BE1" s="33">
-        <v>2010</v>
-      </c>
-      <c r="BF1" s="33">
-        <v>2011</v>
-      </c>
-      <c r="BG1" s="33">
-        <v>2012</v>
-      </c>
-      <c r="BH1" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BI1" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BJ1" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK1" s="34">
-        <v>2016</v>
-      </c>
-      <c r="BL1" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BM1" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BN1" s="33">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="C30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="C31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="B32" s="15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="C33" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="B34" s="15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>83</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22617,10 +22253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN61"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="A2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22628,2348 +22264,571 @@
     <col min="1" max="1" width="10.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:64" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="29">
+        <v>1960</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1961</v>
+      </c>
+      <c r="G1" s="29">
+        <v>1962</v>
+      </c>
+      <c r="H1" s="29">
+        <v>1963</v>
+      </c>
+      <c r="I1" s="29">
+        <v>1964</v>
+      </c>
+      <c r="J1" s="29">
+        <v>1965</v>
+      </c>
+      <c r="K1" s="29">
+        <v>1966</v>
+      </c>
+      <c r="L1" s="29">
+        <v>1967</v>
+      </c>
+      <c r="M1" s="29">
+        <v>1968</v>
+      </c>
+      <c r="N1" s="29">
+        <v>1969</v>
+      </c>
+      <c r="O1" s="29">
+        <v>1970</v>
+      </c>
+      <c r="P1" s="29">
+        <v>1971</v>
+      </c>
+      <c r="Q1" s="29">
+        <v>1972</v>
+      </c>
+      <c r="R1" s="29">
+        <v>1973</v>
+      </c>
+      <c r="S1" s="29">
+        <v>1974</v>
+      </c>
+      <c r="T1" s="29">
+        <v>1975</v>
+      </c>
+      <c r="U1" s="29">
+        <v>1976</v>
+      </c>
+      <c r="V1" s="29">
+        <v>1977</v>
+      </c>
+      <c r="W1" s="29">
+        <v>1978</v>
+      </c>
+      <c r="X1" s="29">
+        <v>1979</v>
+      </c>
+      <c r="Y1" s="29">
+        <v>1980</v>
+      </c>
+      <c r="Z1" s="29">
+        <v>1981</v>
+      </c>
+      <c r="AA1" s="29">
+        <v>1982</v>
+      </c>
+      <c r="AB1" s="29">
+        <v>1983</v>
+      </c>
+      <c r="AC1" s="29">
+        <v>1984</v>
+      </c>
+      <c r="AD1" s="29">
+        <v>1985</v>
+      </c>
+      <c r="AE1" s="29">
+        <v>1986</v>
+      </c>
+      <c r="AF1" s="29">
+        <v>1987</v>
+      </c>
+      <c r="AG1" s="29">
+        <v>1988</v>
+      </c>
+      <c r="AH1" s="29">
+        <v>1989</v>
+      </c>
+      <c r="AI1" s="29">
+        <v>1990</v>
+      </c>
+      <c r="AJ1" s="29">
+        <v>1991</v>
+      </c>
+      <c r="AK1" s="29">
+        <v>1992</v>
+      </c>
+      <c r="AL1" s="29">
+        <v>1993</v>
+      </c>
+      <c r="AM1" s="29">
+        <v>1994</v>
+      </c>
+      <c r="AN1" s="29">
+        <v>1995</v>
+      </c>
+      <c r="AO1" s="29">
+        <v>1996</v>
+      </c>
+      <c r="AP1" s="29">
+        <v>1997</v>
+      </c>
+      <c r="AQ1" s="29">
+        <v>1998</v>
+      </c>
+      <c r="AR1" s="29">
+        <v>1999</v>
+      </c>
+      <c r="AS1" s="29">
+        <v>2000</v>
+      </c>
+      <c r="AT1" s="29">
+        <v>2001</v>
+      </c>
+      <c r="AU1" s="29">
+        <v>2002</v>
+      </c>
+      <c r="AV1" s="29">
+        <v>2003</v>
+      </c>
+      <c r="AW1" s="29">
+        <v>2004</v>
+      </c>
+      <c r="AX1" s="29">
+        <v>2005</v>
+      </c>
+      <c r="AY1" s="29">
+        <v>2006</v>
+      </c>
+      <c r="AZ1" s="29">
+        <v>2007</v>
+      </c>
+      <c r="BA1" s="29">
+        <v>2008</v>
+      </c>
+      <c r="BB1" s="29">
+        <v>2009</v>
+      </c>
+      <c r="BC1" s="29">
+        <v>2010</v>
+      </c>
+      <c r="BD1" s="29">
+        <v>2011</v>
+      </c>
+      <c r="BE1" s="29">
+        <v>2012</v>
+      </c>
+      <c r="BF1" s="29">
+        <v>2013</v>
+      </c>
+      <c r="BG1" s="29">
+        <v>2014</v>
+      </c>
+      <c r="BH1" s="29">
+        <v>2015</v>
+      </c>
+      <c r="BI1" s="30">
+        <v>2016</v>
+      </c>
+      <c r="BJ1" s="29">
+        <v>2017</v>
+      </c>
+      <c r="BK1" s="29">
+        <v>2018</v>
+      </c>
+      <c r="BL1" s="29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="B2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="33">
-        <v>1960</v>
-      </c>
-      <c r="H1" s="33">
-        <v>1961</v>
-      </c>
-      <c r="I1" s="33">
-        <v>1962</v>
-      </c>
-      <c r="J1" s="33">
-        <v>1963</v>
-      </c>
-      <c r="K1" s="33">
-        <v>1964</v>
-      </c>
-      <c r="L1" s="33">
-        <v>1965</v>
-      </c>
-      <c r="M1" s="33">
-        <v>1966</v>
-      </c>
-      <c r="N1" s="33">
-        <v>1967</v>
-      </c>
-      <c r="O1" s="33">
-        <v>1968</v>
-      </c>
-      <c r="P1" s="33">
-        <v>1969</v>
-      </c>
-      <c r="Q1" s="33">
-        <v>1970</v>
-      </c>
-      <c r="R1" s="33">
-        <v>1971</v>
-      </c>
-      <c r="S1" s="33">
-        <v>1972</v>
-      </c>
-      <c r="T1" s="33">
-        <v>1973</v>
-      </c>
-      <c r="U1" s="33">
-        <v>1974</v>
-      </c>
-      <c r="V1" s="33">
-        <v>1975</v>
-      </c>
-      <c r="W1" s="33">
-        <v>1976</v>
-      </c>
-      <c r="X1" s="33">
-        <v>1977</v>
-      </c>
-      <c r="Y1" s="33">
-        <v>1978</v>
-      </c>
-      <c r="Z1" s="33">
-        <v>1979</v>
-      </c>
-      <c r="AA1" s="33">
-        <v>1980</v>
-      </c>
-      <c r="AB1" s="33">
-        <v>1981</v>
-      </c>
-      <c r="AC1" s="33">
-        <v>1982</v>
-      </c>
-      <c r="AD1" s="33">
-        <v>1983</v>
-      </c>
-      <c r="AE1" s="33">
-        <v>1984</v>
-      </c>
-      <c r="AF1" s="33">
-        <v>1985</v>
-      </c>
-      <c r="AG1" s="33">
-        <v>1986</v>
-      </c>
-      <c r="AH1" s="33">
-        <v>1987</v>
-      </c>
-      <c r="AI1" s="33">
-        <v>1988</v>
-      </c>
-      <c r="AJ1" s="33">
-        <v>1989</v>
-      </c>
-      <c r="AK1" s="33">
-        <v>1990</v>
-      </c>
-      <c r="AL1" s="33">
-        <v>1991</v>
-      </c>
-      <c r="AM1" s="33">
-        <v>1992</v>
-      </c>
-      <c r="AN1" s="33">
-        <v>1993</v>
-      </c>
-      <c r="AO1" s="33">
-        <v>1994</v>
-      </c>
-      <c r="AP1" s="33">
-        <v>1995</v>
-      </c>
-      <c r="AQ1" s="33">
-        <v>1996</v>
-      </c>
-      <c r="AR1" s="33">
-        <v>1997</v>
-      </c>
-      <c r="AS1" s="33">
-        <v>1998</v>
-      </c>
-      <c r="AT1" s="33">
-        <v>1999</v>
-      </c>
-      <c r="AU1" s="33">
-        <v>2000</v>
-      </c>
-      <c r="AV1" s="33">
-        <v>2001</v>
-      </c>
-      <c r="AW1" s="33">
-        <v>2002</v>
-      </c>
-      <c r="AX1" s="33">
-        <v>2003</v>
-      </c>
-      <c r="AY1" s="33">
-        <v>2004</v>
-      </c>
-      <c r="AZ1" s="33">
-        <v>2005</v>
-      </c>
-      <c r="BA1" s="33">
-        <v>2006</v>
-      </c>
-      <c r="BB1" s="33">
-        <v>2007</v>
-      </c>
-      <c r="BC1" s="33">
-        <v>2008</v>
-      </c>
-      <c r="BD1" s="33">
-        <v>2009</v>
-      </c>
-      <c r="BE1" s="33">
-        <v>2010</v>
-      </c>
-      <c r="BF1" s="33">
-        <v>2011</v>
-      </c>
-      <c r="BG1" s="33">
-        <v>2012</v>
-      </c>
-      <c r="BH1" s="33">
-        <v>2013</v>
-      </c>
-      <c r="BI1" s="33">
-        <v>2014</v>
-      </c>
-      <c r="BJ1" s="33">
-        <v>2015</v>
-      </c>
-      <c r="BK1" s="34">
-        <v>2016</v>
-      </c>
-      <c r="BL1" s="33">
-        <v>2017</v>
-      </c>
-      <c r="BM1" s="33">
-        <v>2018</v>
-      </c>
-      <c r="BN1" s="33">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="B16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="15" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="array" ref="G5:BJ5">TRANSPOSE('PS Data - Human Power Outputs'!E5:E60)</f>
-        <v>81.165156703086879</v>
-      </c>
-      <c r="H5" s="15">
-        <v>81.219477865621997</v>
-      </c>
-      <c r="I5" s="15">
-        <v>81.273786920505884</v>
-      </c>
-      <c r="J5" s="15">
-        <v>81.328083881219911</v>
-      </c>
-      <c r="K5" s="15">
-        <v>81.382368761218373</v>
-      </c>
-      <c r="L5" s="15">
-        <v>81.436641573928767</v>
-      </c>
-      <c r="M5" s="15">
-        <v>81.490902332751702</v>
-      </c>
-      <c r="N5" s="15">
-        <v>81.545151051060984</v>
-      </c>
-      <c r="O5" s="15">
-        <v>81.599387742203788</v>
-      </c>
-      <c r="P5" s="15">
-        <v>81.653612419500789</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>81.707825096245827</v>
-      </c>
-      <c r="R5" s="15">
-        <v>81.762025785706527</v>
-      </c>
-      <c r="S5" s="15">
-        <v>81.816214501124136</v>
-      </c>
-      <c r="T5" s="15">
-        <v>81.870391255713443</v>
-      </c>
-      <c r="U5" s="15">
-        <v>81.924556062663129</v>
-      </c>
-      <c r="V5" s="15">
-        <v>81.978708935135799</v>
-      </c>
-      <c r="W5" s="15">
-        <v>82.032849886267726</v>
-      </c>
-      <c r="X5" s="15">
-        <v>82.086978929169433</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>82.141096076925365</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>82.195201342594103</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>82.249294739208551</v>
-      </c>
-      <c r="AB5" s="15">
-        <v>82.30337627977579</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>82.357445977277479</v>
-      </c>
-      <c r="AD5" s="15">
-        <v>82.411503844669411</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>82.465549894882031</v>
-      </c>
-      <c r="AF5" s="15">
-        <v>82.519584140820569</v>
-      </c>
-      <c r="AG5" s="15">
-        <v>82.573606595364453</v>
-      </c>
-      <c r="AH5" s="15">
-        <v>82.627617271368266</v>
-      </c>
-      <c r="AI5" s="15">
-        <v>82.681616181661198</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>82.735603339047259</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>82.789578756305573</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>82.843542446190142</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>82.897494421430054</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>82.951434694729571</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>83.005363278768215</v>
-      </c>
-      <c r="AP5" s="15">
-        <v>83.05928018620078</v>
-      </c>
-      <c r="AQ5" s="15">
-        <v>83.113185429657449</v>
-      </c>
-      <c r="AR5" s="15">
-        <v>83.16707902174366</v>
-      </c>
-      <c r="AS5" s="15">
-        <v>83.220960975040654</v>
-      </c>
-      <c r="AT5" s="15">
-        <v>83.274831302104928</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>83.328690015468908</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>83.382537127640433</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>83.436372651103312</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>83.490196598317169</v>
-      </c>
-      <c r="AY5" s="15">
-        <v>83.544008981717454</v>
-      </c>
-      <c r="AZ5" s="15">
-        <v>83.597809813715728</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>83.651599106699493</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>83.70537687303235</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>83.759143125054152</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>83.812897875080807</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>83.866641135404933</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>83.920372918294959</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>83.974093235996321</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>84.027802100730455</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>84.081499524695857</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>84.135185520067225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="array" ref="G6:BJ6">TRANSPOSE('PS Data - Human Power Outputs'!C5:C60)</f>
-        <v>82.469501484000844</v>
-      </c>
-      <c r="H6" s="15">
-        <v>82.530032635502252</v>
-      </c>
-      <c r="I6" s="15">
-        <v>82.590548991883594</v>
-      </c>
-      <c r="J6" s="15">
-        <v>82.651050571208259</v>
-      </c>
-      <c r="K6" s="15">
-        <v>82.711537391500343</v>
-      </c>
-      <c r="L6" s="15">
-        <v>82.772009470744038</v>
-      </c>
-      <c r="M6" s="15">
-        <v>82.832466826884527</v>
-      </c>
-      <c r="N6" s="15">
-        <v>82.892909477827402</v>
-      </c>
-      <c r="O6" s="15">
-        <v>82.953337441439203</v>
-      </c>
-      <c r="P6" s="15">
-        <v>83.013750735547376</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>83.074149377940628</v>
-      </c>
-      <c r="R6" s="15">
-        <v>83.134533386368645</v>
-      </c>
-      <c r="S6" s="15">
-        <v>83.194902778542627</v>
-      </c>
-      <c r="T6" s="15">
-        <v>83.255257572135108</v>
-      </c>
-      <c r="U6" s="15">
-        <v>83.31559778478028</v>
-      </c>
-      <c r="V6" s="15">
-        <v>83.375923434073968</v>
-      </c>
-      <c r="W6" s="15">
-        <v>83.436234537573853</v>
-      </c>
-      <c r="X6" s="15">
-        <v>83.496531112799516</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>83.556813177232684</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>83.617080748317079</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>83.677333843458925</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>83.737572480026671</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>83.797796675351393</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>83.858006446726819</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>83.918201811409361</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>83.978382786618312</v>
-      </c>
-      <c r="AG6" s="15">
-        <v>84.038549389536115</v>
-      </c>
-      <c r="AH6" s="15">
-        <v>84.098701637308139</v>
-      </c>
-      <c r="AI6" s="15">
-        <v>84.158839547042959</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>84.218963135812558</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>84.27907242065254</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>84.339167418561573</v>
-      </c>
-      <c r="AM6" s="15">
-        <v>84.399248146502558</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>84.459314621401802</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>84.519366860149731</v>
-      </c>
-      <c r="AP6" s="15">
-        <v>84.57940487960056</v>
-      </c>
-      <c r="AQ6" s="15">
-        <v>84.639428696572807</v>
-      </c>
-      <c r="AR6" s="15">
-        <v>84.699438327849151</v>
-      </c>
-      <c r="AS6" s="15">
-        <v>84.759433790176587</v>
-      </c>
-      <c r="AT6" s="15">
-        <v>84.819415100266596</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>84.879382274795162</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>84.939335330402997</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>84.999274283695527</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>85.059199151243092</v>
-      </c>
-      <c r="AY6" s="15">
-        <v>85.119109949580931</v>
-      </c>
-      <c r="AZ6" s="15">
-        <v>85.179006695209623</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>85.23888940459463</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>85.298758094166914</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>85.358612780322829</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>85.418453479424215</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>85.47828020779852</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>85.538092981738856</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>85.597891817504319</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>85.657676731319881</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>85.717447739376468</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>85.777204857831208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="array" ref="G8:BJ8">TRANSPOSE('PS Data - Human Power Outputs'!G5:G60)</f>
-        <v>85.10073449551534</v>
-      </c>
-      <c r="H8" s="15">
-        <v>85.139189915454693</v>
-      </c>
-      <c r="I8" s="15">
-        <v>85.174564195104551</v>
-      </c>
-      <c r="J8" s="15">
-        <v>85.207072352786014</v>
-      </c>
-      <c r="K8" s="15">
-        <v>85.236919735576564</v>
-      </c>
-      <c r="L8" s="15">
-        <v>85.26430149008479</v>
-      </c>
-      <c r="M8" s="15">
-        <v>85.289402259882081</v>
-      </c>
-      <c r="N8" s="15">
-        <v>85.312396071845072</v>
-      </c>
-      <c r="O8" s="15">
-        <v>85.333446377307453</v>
-      </c>
-      <c r="P8" s="15">
-        <v>85.352706217696024</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>85.370318488074375</v>
-      </c>
-      <c r="R8" s="15">
-        <v>85.386416275602187</v>
-      </c>
-      <c r="S8" s="15">
-        <v>85.40112325327479</v>
-      </c>
-      <c r="T8" s="15">
-        <v>85.414554112379037</v>
-      </c>
-      <c r="U8" s="15">
-        <v>85.426815019865259</v>
-      </c>
-      <c r="V8" s="15">
-        <v>85.438004089287773</v>
-      </c>
-      <c r="W8" s="15">
-        <v>85.44821185611562</v>
-      </c>
-      <c r="X8" s="15">
-        <v>85.457521750071962</v>
-      </c>
-      <c r="Y8" s="15">
-        <v>85.466010558754618</v>
-      </c>
-      <c r="Z8" s="15">
-        <v>85.47374887813811</v>
-      </c>
-      <c r="AA8" s="15">
-        <v>85.480801546688753</v>
-      </c>
-      <c r="AB8" s="15">
-        <v>85.487228060766569</v>
-      </c>
-      <c r="AC8" s="15">
-        <v>85.493082969758049</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>85.498416250014131</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>85.503273657170922</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>85.507697056831191</v>
-      </c>
-      <c r="AG8" s="15">
-        <v>85.511724733894752</v>
-      </c>
-      <c r="AH8" s="15">
-        <v>85.515391681064216</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>85.518729867229354</v>
-      </c>
-      <c r="AJ8" s="15">
-        <v>85.521768486557804</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>85.524534189208168</v>
-      </c>
-      <c r="AL8" s="15">
-        <v>85.527051294631178</v>
-      </c>
-      <c r="AM8" s="15">
-        <v>85.529341988454647</v>
-      </c>
-      <c r="AN8" s="15">
-        <v>85.531426503950101</v>
-      </c>
-      <c r="AO8" s="15">
-        <v>85.533323289072783</v>
-      </c>
-      <c r="AP8" s="15">
-        <v>85.535049160041495</v>
-      </c>
-      <c r="AQ8" s="15">
-        <v>85.536619442395164</v>
-      </c>
-      <c r="AR8" s="15">
-        <v>85.538048100425911</v>
-      </c>
-      <c r="AS8" s="15">
-        <v>85.539347855844511</v>
-      </c>
-      <c r="AT8" s="15">
-        <v>85.54053029649188</v>
-      </c>
-      <c r="AU8" s="15">
-        <v>85.541605975862296</v>
-      </c>
-      <c r="AV8" s="15">
-        <v>85.542584504157929</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>85.543474631549273</v>
-      </c>
-      <c r="AX8" s="15">
-        <v>85.54428432426883</v>
-      </c>
-      <c r="AY8" s="15">
-        <v>85.545020834124031</v>
-      </c>
-      <c r="AZ8" s="15">
-        <v>85.54569076197059</v>
-      </c>
-      <c r="BA8" s="15">
-        <v>85.54630011565159</v>
-      </c>
-      <c r="BB8" s="15">
-        <v>85.546854362863286</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>85.547358479380662</v>
-      </c>
-      <c r="BD8" s="15">
-        <v>85.5478169930348</v>
-      </c>
-      <c r="BE8" s="15">
-        <v>85.548234023807709</v>
-      </c>
-      <c r="BF8" s="15">
-        <v>85.548613320378067</v>
-      </c>
-      <c r="BG8" s="15">
-        <v>85.54895829342594</v>
-      </c>
-      <c r="BH8" s="15">
-        <v>85.549272045976863</v>
-      </c>
-      <c r="BI8" s="15">
-        <v>85.54955740104532</v>
-      </c>
-      <c r="BJ8" s="15">
-        <v>85.549816926812312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="15">
-        <f t="array" ref="G11:BJ11">TRANSPOSE('PS Data - Human Power Outputs'!G5:G60)</f>
-        <v>85.10073449551534</v>
-      </c>
-      <c r="H11" s="15">
-        <v>85.139189915454693</v>
-      </c>
-      <c r="I11" s="15">
-        <v>85.174564195104551</v>
-      </c>
-      <c r="J11" s="15">
-        <v>85.207072352786014</v>
-      </c>
-      <c r="K11" s="15">
-        <v>85.236919735576564</v>
-      </c>
-      <c r="L11" s="15">
-        <v>85.26430149008479</v>
-      </c>
-      <c r="M11" s="15">
-        <v>85.289402259882081</v>
-      </c>
-      <c r="N11" s="15">
-        <v>85.312396071845072</v>
-      </c>
-      <c r="O11" s="15">
-        <v>85.333446377307453</v>
-      </c>
-      <c r="P11" s="15">
-        <v>85.352706217696024</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>85.370318488074375</v>
-      </c>
-      <c r="R11" s="15">
-        <v>85.386416275602187</v>
-      </c>
-      <c r="S11" s="15">
-        <v>85.40112325327479</v>
-      </c>
-      <c r="T11" s="15">
-        <v>85.414554112379037</v>
-      </c>
-      <c r="U11" s="15">
-        <v>85.426815019865259</v>
-      </c>
-      <c r="V11" s="15">
-        <v>85.438004089287773</v>
-      </c>
-      <c r="W11" s="15">
-        <v>85.44821185611562</v>
-      </c>
-      <c r="X11" s="15">
-        <v>85.457521750071962</v>
-      </c>
-      <c r="Y11" s="15">
-        <v>85.466010558754618</v>
-      </c>
-      <c r="Z11" s="15">
-        <v>85.47374887813811</v>
-      </c>
-      <c r="AA11" s="15">
-        <v>85.480801546688753</v>
-      </c>
-      <c r="AB11" s="15">
-        <v>85.487228060766569</v>
-      </c>
-      <c r="AC11" s="15">
-        <v>85.493082969758049</v>
-      </c>
-      <c r="AD11" s="15">
-        <v>85.498416250014131</v>
-      </c>
-      <c r="AE11" s="15">
-        <v>85.503273657170922</v>
-      </c>
-      <c r="AF11" s="15">
-        <v>85.507697056831191</v>
-      </c>
-      <c r="AG11" s="15">
-        <v>85.511724733894752</v>
-      </c>
-      <c r="AH11" s="15">
-        <v>85.515391681064216</v>
-      </c>
-      <c r="AI11" s="15">
-        <v>85.518729867229354</v>
-      </c>
-      <c r="AJ11" s="15">
-        <v>85.521768486557804</v>
-      </c>
-      <c r="AK11" s="15">
-        <v>85.524534189208168</v>
-      </c>
-      <c r="AL11" s="15">
-        <v>85.527051294631178</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>85.529341988454647</v>
-      </c>
-      <c r="AN11" s="15">
-        <v>85.531426503950101</v>
-      </c>
-      <c r="AO11" s="15">
-        <v>85.533323289072783</v>
-      </c>
-      <c r="AP11" s="15">
-        <v>85.535049160041495</v>
-      </c>
-      <c r="AQ11" s="15">
-        <v>85.536619442395164</v>
-      </c>
-      <c r="AR11" s="15">
-        <v>85.538048100425911</v>
-      </c>
-      <c r="AS11" s="15">
-        <v>85.539347855844511</v>
-      </c>
-      <c r="AT11" s="15">
-        <v>85.54053029649188</v>
-      </c>
-      <c r="AU11" s="15">
-        <v>85.541605975862296</v>
-      </c>
-      <c r="AV11" s="15">
-        <v>85.542584504157929</v>
-      </c>
-      <c r="AW11" s="15">
-        <v>85.543474631549273</v>
-      </c>
-      <c r="AX11" s="15">
-        <v>85.54428432426883</v>
-      </c>
-      <c r="AY11" s="15">
-        <v>85.545020834124031</v>
-      </c>
-      <c r="AZ11" s="15">
-        <v>85.54569076197059</v>
-      </c>
-      <c r="BA11" s="15">
-        <v>85.54630011565159</v>
-      </c>
-      <c r="BB11" s="15">
-        <v>85.546854362863286</v>
-      </c>
-      <c r="BC11" s="15">
-        <v>85.547358479380662</v>
-      </c>
-      <c r="BD11" s="15">
-        <v>85.5478169930348</v>
-      </c>
-      <c r="BE11" s="15">
-        <v>85.548234023807709</v>
-      </c>
-      <c r="BF11" s="15">
-        <v>85.548613320378067</v>
-      </c>
-      <c r="BG11" s="15">
-        <v>85.54895829342594</v>
-      </c>
-      <c r="BH11" s="15">
-        <v>85.549272045976863</v>
-      </c>
-      <c r="BI11" s="15">
-        <v>85.54955740104532</v>
-      </c>
-      <c r="BJ11" s="15">
-        <v>85.549816926812312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="C28" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="array" ref="G15:BJ15">TRANSPOSE('PS Data - Human Power Outputs'!F5:F60)</f>
-        <v>51.404599245288352</v>
-      </c>
-      <c r="H15" s="15">
-        <v>51.439002648227266</v>
-      </c>
-      <c r="I15" s="15">
-        <v>51.473398382987057</v>
-      </c>
-      <c r="J15" s="15">
-        <v>51.50778645810594</v>
-      </c>
-      <c r="K15" s="15">
-        <v>51.542166882104972</v>
-      </c>
-      <c r="L15" s="15">
-        <v>51.576539663488219</v>
-      </c>
-      <c r="M15" s="15">
-        <v>51.610904810742745</v>
-      </c>
-      <c r="N15" s="15">
-        <v>51.645262332338618</v>
-      </c>
-      <c r="O15" s="15">
-        <v>51.679612236729064</v>
-      </c>
-      <c r="P15" s="15">
-        <v>51.713954532350492</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>51.748289227622351</v>
-      </c>
-      <c r="R15" s="15">
-        <v>51.782616330947469</v>
-      </c>
-      <c r="S15" s="15">
-        <v>51.816935850711957</v>
-      </c>
-      <c r="T15" s="15">
-        <v>51.851247795285175</v>
-      </c>
-      <c r="U15" s="15">
-        <v>51.885552173019981</v>
-      </c>
-      <c r="V15" s="15">
-        <v>51.919848992252675</v>
-      </c>
-      <c r="W15" s="15">
-        <v>51.954138261302894</v>
-      </c>
-      <c r="X15" s="15">
-        <v>51.988419988473972</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>52.022694182052732</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>52.056960850309594</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>52.091220001498755</v>
-      </c>
-      <c r="AB15" s="15">
-        <v>52.125471643857992</v>
-      </c>
-      <c r="AC15" s="15">
-        <v>52.159715785609073</v>
-      </c>
-      <c r="AD15" s="15">
-        <v>52.193952434957296</v>
-      </c>
-      <c r="AE15" s="15">
-        <v>52.228181600091943</v>
-      </c>
-      <c r="AF15" s="15">
-        <v>52.262403289186359</v>
-      </c>
-      <c r="AG15" s="15">
-        <v>52.296617510397475</v>
-      </c>
-      <c r="AH15" s="15">
-        <v>52.330824271866561</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>52.365023581718759</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>52.399215448063259</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>52.433399878993526</v>
-      </c>
-      <c r="AL15" s="15">
-        <v>52.467576882587089</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>52.501746466905701</v>
-      </c>
-      <c r="AN15" s="15">
-        <v>52.535908639995391</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>52.570063409886536</v>
-      </c>
-      <c r="AP15" s="15">
-        <v>52.604210784593825</v>
-      </c>
-      <c r="AQ15" s="15">
-        <v>52.638350772116382</v>
-      </c>
-      <c r="AR15" s="15">
-        <v>52.672483380437654</v>
-      </c>
-      <c r="AS15" s="15">
-        <v>52.706608617525745</v>
-      </c>
-      <c r="AT15" s="15">
-        <v>52.74072649133312</v>
-      </c>
-      <c r="AU15" s="15">
-        <v>52.774837009796975</v>
-      </c>
-      <c r="AV15" s="15">
-        <v>52.808940180838938</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>52.843036012365431</v>
-      </c>
-      <c r="AX15" s="15">
-        <v>52.877124512267528</v>
-      </c>
-      <c r="AY15" s="15">
-        <v>52.911205688421056</v>
-      </c>
-      <c r="AZ15" s="15">
-        <v>52.945279548686628</v>
-      </c>
-      <c r="BA15" s="15">
-        <v>52.979346100909673</v>
-      </c>
-      <c r="BB15" s="15">
-        <v>53.013405352920493</v>
-      </c>
-      <c r="BC15" s="15">
-        <v>53.047457312534299</v>
-      </c>
-      <c r="BD15" s="15">
-        <v>53.081501987551178</v>
-      </c>
-      <c r="BE15" s="15">
-        <v>53.115539385756449</v>
-      </c>
-      <c r="BF15" s="15">
-        <v>53.149569514920145</v>
-      </c>
-      <c r="BG15" s="15">
-        <v>53.183592382797663</v>
-      </c>
-      <c r="BH15" s="15">
-        <v>53.217607997129285</v>
-      </c>
-      <c r="BI15" s="15">
-        <v>53.251616365640707</v>
-      </c>
-      <c r="BJ15" s="15">
-        <v>53.285617496042576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="array" ref="G16:BJ16">TRANSPOSE('PS Data - Human Power Outputs'!D5:D60)</f>
-        <v>52.230684273200531</v>
-      </c>
-      <c r="H16" s="15">
-        <v>52.269020669151423</v>
-      </c>
-      <c r="I16" s="15">
-        <v>52.307347694859601</v>
-      </c>
-      <c r="J16" s="15">
-        <v>52.345665361765235</v>
-      </c>
-      <c r="K16" s="15">
-        <v>52.38397368128355</v>
-      </c>
-      <c r="L16" s="15">
-        <v>52.422272664804552</v>
-      </c>
-      <c r="M16" s="15">
-        <v>52.46056232369353</v>
-      </c>
-      <c r="N16" s="15">
-        <v>52.498842669290688</v>
-      </c>
-      <c r="O16" s="15">
-        <v>52.537113712911498</v>
-      </c>
-      <c r="P16" s="15">
-        <v>52.575375465846669</v>
-      </c>
-      <c r="Q16" s="15">
-        <v>52.613627939362388</v>
-      </c>
-      <c r="R16" s="15">
-        <v>52.651871144700138</v>
-      </c>
-      <c r="S16" s="15">
-        <v>52.690105093076994</v>
-      </c>
-      <c r="T16" s="15">
-        <v>52.728329795685561</v>
-      </c>
-      <c r="U16" s="15">
-        <v>52.766545263694169</v>
-      </c>
-      <c r="V16" s="15">
-        <v>52.804751508246838</v>
-      </c>
-      <c r="W16" s="15">
-        <v>52.842948540463439</v>
-      </c>
-      <c r="X16" s="15">
-        <v>52.881136371439695</v>
-      </c>
-      <c r="Y16" s="15">
-        <v>52.919315012247367</v>
-      </c>
-      <c r="Z16" s="15">
-        <v>52.957484473934151</v>
-      </c>
-      <c r="AA16" s="15">
-        <v>52.995644767523984</v>
-      </c>
-      <c r="AB16" s="15">
-        <v>53.033795904016884</v>
-      </c>
-      <c r="AC16" s="15">
-        <v>53.071937894389215</v>
-      </c>
-      <c r="AD16" s="15">
-        <v>53.110070749593653</v>
-      </c>
-      <c r="AE16" s="15">
-        <v>53.148194480559255</v>
-      </c>
-      <c r="AF16" s="15">
-        <v>53.186309098191593</v>
-      </c>
-      <c r="AG16" s="15">
-        <v>53.224414613372872</v>
-      </c>
-      <c r="AH16" s="15">
-        <v>53.262511036961811</v>
-      </c>
-      <c r="AI16" s="15">
-        <v>53.300598379793875</v>
-      </c>
-      <c r="AJ16" s="15">
-        <v>53.338676652681286</v>
-      </c>
-      <c r="AK16" s="15">
-        <v>53.376745866413273</v>
-      </c>
-      <c r="AL16" s="15">
-        <v>53.414806031755653</v>
-      </c>
-      <c r="AM16" s="15">
-        <v>53.452857159451618</v>
-      </c>
-      <c r="AN16" s="15">
-        <v>53.490899260221141</v>
-      </c>
-      <c r="AO16" s="15">
-        <v>53.528932344761493</v>
-      </c>
-      <c r="AP16" s="15">
-        <v>53.566956423747015</v>
-      </c>
-      <c r="AQ16" s="15">
-        <v>53.60497150782944</v>
-      </c>
-      <c r="AR16" s="15">
-        <v>53.642977607637796</v>
-      </c>
-      <c r="AS16" s="15">
-        <v>53.680974733778505</v>
-      </c>
-      <c r="AT16" s="15">
-        <v>53.718962896835514</v>
-      </c>
-      <c r="AU16" s="15">
-        <v>53.756942107370264</v>
-      </c>
-      <c r="AV16" s="15">
-        <v>53.794912375921896</v>
-      </c>
-      <c r="AW16" s="15">
-        <v>53.83287371300716</v>
-      </c>
-      <c r="AX16" s="15">
-        <v>53.870826129120623</v>
-      </c>
-      <c r="AY16" s="15">
-        <v>53.90876963473459</v>
-      </c>
-      <c r="AZ16" s="15">
-        <v>53.946704240299432</v>
-      </c>
-      <c r="BA16" s="15">
-        <v>53.984629956243268</v>
-      </c>
-      <c r="BB16" s="15">
-        <v>54.022546792972371</v>
-      </c>
-      <c r="BC16" s="15">
-        <v>54.060454760871124</v>
-      </c>
-      <c r="BD16" s="15">
-        <v>54.098353870301999</v>
-      </c>
-      <c r="BE16" s="15">
-        <v>54.136244131605729</v>
-      </c>
-      <c r="BF16" s="15">
-        <v>54.174125555101277</v>
-      </c>
-      <c r="BG16" s="15">
-        <v>54.211998151086071</v>
-      </c>
-      <c r="BH16" s="15">
-        <v>54.249861929835923</v>
-      </c>
-      <c r="BI16" s="15">
-        <v>54.287716901605087</v>
-      </c>
-      <c r="BJ16" s="15">
-        <v>54.32556307662643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="15">
-        <f t="array" ref="G18:BJ18">TRANSPOSE('PS Data - Human Power Outputs'!H5:H60)</f>
-        <v>53.897131847159713</v>
-      </c>
-      <c r="H18" s="15">
-        <v>53.921486946454635</v>
-      </c>
-      <c r="I18" s="15">
-        <v>53.943890656899548</v>
-      </c>
-      <c r="J18" s="15">
-        <v>53.964479156764469</v>
-      </c>
-      <c r="K18" s="15">
-        <v>53.983382499198491</v>
-      </c>
-      <c r="L18" s="15">
-        <v>54.000724277053699</v>
-      </c>
-      <c r="M18" s="15">
-        <v>54.016621431258649</v>
-      </c>
-      <c r="N18" s="15">
-        <v>54.031184178835204</v>
-      </c>
-      <c r="O18" s="15">
-        <v>54.044516038961383</v>
-      </c>
-      <c r="P18" s="15">
-        <v>54.056713937874143</v>
-      </c>
-      <c r="Q18" s="15">
-        <v>54.067868375780435</v>
-      </c>
-      <c r="R18" s="15">
-        <v>54.078063641214719</v>
-      </c>
-      <c r="S18" s="15">
-        <v>54.087378060407367</v>
-      </c>
-      <c r="T18" s="15">
-        <v>54.095884271173396</v>
-      </c>
-      <c r="U18" s="15">
-        <v>54.103649512581335</v>
-      </c>
-      <c r="V18" s="15">
-        <v>54.110735923215586</v>
-      </c>
-      <c r="W18" s="15">
-        <v>54.117200842206557</v>
-      </c>
-      <c r="X18" s="15">
-        <v>54.123097108378907</v>
-      </c>
-      <c r="Y18" s="15">
-        <v>54.128473353877922</v>
-      </c>
-      <c r="Z18" s="15">
-        <v>54.133374289487463</v>
-      </c>
-      <c r="AA18" s="15">
-        <v>54.137840979569546</v>
-      </c>
-      <c r="AB18" s="15">
-        <v>54.141911105152161</v>
-      </c>
-      <c r="AC18" s="15">
-        <v>54.145619214180094</v>
-      </c>
-      <c r="AD18" s="15">
-        <v>54.148996958342281</v>
-      </c>
-      <c r="AE18" s="15">
-        <v>54.152073316208252</v>
-      </c>
-      <c r="AF18" s="15">
-        <v>54.154874802659748</v>
-      </c>
-      <c r="AG18" s="15">
-        <v>54.157425664800002</v>
-      </c>
-      <c r="AH18" s="15">
-        <v>54.159748064674005</v>
-      </c>
-      <c r="AI18" s="15">
-        <v>54.16186224924526</v>
-      </c>
-      <c r="AJ18" s="15">
-        <v>54.163786708153275</v>
-      </c>
-      <c r="AK18" s="15">
-        <v>54.165538319831832</v>
-      </c>
-      <c r="AL18" s="15">
-        <v>54.167132486599741</v>
-      </c>
-      <c r="AM18" s="15">
-        <v>54.168583259354605</v>
-      </c>
-      <c r="AN18" s="15">
-        <v>54.169903452501728</v>
-      </c>
-      <c r="AO18" s="15">
-        <v>54.1711047497461</v>
-      </c>
-      <c r="AP18" s="15">
-        <v>54.172197801359609</v>
-      </c>
-      <c r="AQ18" s="15">
-        <v>54.173192313516935</v>
-      </c>
-      <c r="AR18" s="15">
-        <v>54.174097130269736</v>
-      </c>
-      <c r="AS18" s="15">
-        <v>54.174920308701516</v>
-      </c>
-      <c r="AT18" s="15">
-        <v>54.175669187778183</v>
-      </c>
-      <c r="AU18" s="15">
-        <v>54.176350451379456</v>
-      </c>
-      <c r="AV18" s="15">
-        <v>54.176970185966681</v>
-      </c>
-      <c r="AW18" s="15">
-        <v>54.177533933314542</v>
-      </c>
-      <c r="AX18" s="15">
-        <v>54.178046738703593</v>
-      </c>
-      <c r="AY18" s="15">
-        <v>54.178513194945218</v>
-      </c>
-      <c r="AZ18" s="15">
-        <v>54.178937482581375</v>
-      </c>
-      <c r="BA18" s="15">
-        <v>54.179323406579343</v>
-      </c>
-      <c r="BB18" s="15">
-        <v>54.17967442981341</v>
-      </c>
-      <c r="BC18" s="15">
-        <v>54.179993703607749</v>
-      </c>
-      <c r="BD18" s="15">
-        <v>54.180284095588704</v>
-      </c>
-      <c r="BE18" s="15">
-        <v>54.180548215078211</v>
-      </c>
-      <c r="BF18" s="15">
-        <v>54.180788436239439</v>
-      </c>
-      <c r="BG18" s="15">
-        <v>54.181006919169768</v>
-      </c>
-      <c r="BH18" s="15">
-        <v>54.181205629118679</v>
-      </c>
-      <c r="BI18" s="15">
-        <v>54.181386353995364</v>
-      </c>
-      <c r="BJ18" s="15">
-        <v>54.181550720314462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="array" ref="G21:BJ21">TRANSPOSE('PS Data - Human Power Outputs'!H5:H60)</f>
-        <v>53.897131847159713</v>
-      </c>
-      <c r="H21" s="15">
-        <v>53.921486946454635</v>
-      </c>
-      <c r="I21" s="15">
-        <v>53.943890656899548</v>
-      </c>
-      <c r="J21" s="15">
-        <v>53.964479156764469</v>
-      </c>
-      <c r="K21" s="15">
-        <v>53.983382499198491</v>
-      </c>
-      <c r="L21" s="15">
-        <v>54.000724277053699</v>
-      </c>
-      <c r="M21" s="15">
-        <v>54.016621431258649</v>
-      </c>
-      <c r="N21" s="15">
-        <v>54.031184178835204</v>
-      </c>
-      <c r="O21" s="15">
-        <v>54.044516038961383</v>
-      </c>
-      <c r="P21" s="15">
-        <v>54.056713937874143</v>
-      </c>
-      <c r="Q21" s="15">
-        <v>54.067868375780435</v>
-      </c>
-      <c r="R21" s="15">
-        <v>54.078063641214719</v>
-      </c>
-      <c r="S21" s="15">
-        <v>54.087378060407367</v>
-      </c>
-      <c r="T21" s="15">
-        <v>54.095884271173396</v>
-      </c>
-      <c r="U21" s="15">
-        <v>54.103649512581335</v>
-      </c>
-      <c r="V21" s="15">
-        <v>54.110735923215586</v>
-      </c>
-      <c r="W21" s="15">
-        <v>54.117200842206557</v>
-      </c>
-      <c r="X21" s="15">
-        <v>54.123097108378907</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>54.128473353877922</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>54.133374289487463</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>54.137840979569546</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>54.141911105152161</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>54.145619214180094</v>
-      </c>
-      <c r="AD21" s="15">
-        <v>54.148996958342281</v>
-      </c>
-      <c r="AE21" s="15">
-        <v>54.152073316208252</v>
-      </c>
-      <c r="AF21" s="15">
-        <v>54.154874802659748</v>
-      </c>
-      <c r="AG21" s="15">
-        <v>54.157425664800002</v>
-      </c>
-      <c r="AH21" s="15">
-        <v>54.159748064674005</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>54.16186224924526</v>
-      </c>
-      <c r="AJ21" s="15">
-        <v>54.163786708153275</v>
-      </c>
-      <c r="AK21" s="15">
-        <v>54.165538319831832</v>
-      </c>
-      <c r="AL21" s="15">
-        <v>54.167132486599741</v>
-      </c>
-      <c r="AM21" s="15">
-        <v>54.168583259354605</v>
-      </c>
-      <c r="AN21" s="15">
-        <v>54.169903452501728</v>
-      </c>
-      <c r="AO21" s="15">
-        <v>54.1711047497461</v>
-      </c>
-      <c r="AP21" s="15">
-        <v>54.172197801359609</v>
-      </c>
-      <c r="AQ21" s="15">
-        <v>54.173192313516935</v>
-      </c>
-      <c r="AR21" s="15">
-        <v>54.174097130269736</v>
-      </c>
-      <c r="AS21" s="15">
-        <v>54.174920308701516</v>
-      </c>
-      <c r="AT21" s="15">
-        <v>54.175669187778183</v>
-      </c>
-      <c r="AU21" s="15">
-        <v>54.176350451379456</v>
-      </c>
-      <c r="AV21" s="15">
-        <v>54.176970185966681</v>
-      </c>
-      <c r="AW21" s="15">
-        <v>54.177533933314542</v>
-      </c>
-      <c r="AX21" s="15">
-        <v>54.178046738703593</v>
-      </c>
-      <c r="AY21" s="15">
-        <v>54.178513194945218</v>
-      </c>
-      <c r="AZ21" s="15">
-        <v>54.178937482581375</v>
-      </c>
-      <c r="BA21" s="15">
-        <v>54.179323406579343</v>
-      </c>
-      <c r="BB21" s="15">
-        <v>54.17967442981341</v>
-      </c>
-      <c r="BC21" s="15">
-        <v>54.179993703607749</v>
-      </c>
-      <c r="BD21" s="15">
-        <v>54.180284095588704</v>
-      </c>
-      <c r="BE21" s="15">
-        <v>54.180548215078211</v>
-      </c>
-      <c r="BF21" s="15">
-        <v>54.180788436239439</v>
-      </c>
-      <c r="BG21" s="15">
-        <v>54.181006919169768</v>
-      </c>
-      <c r="BH21" s="15">
-        <v>54.181205629118679</v>
-      </c>
-      <c r="BI21" s="15">
-        <v>54.181386353995364</v>
-      </c>
-      <c r="BJ21" s="15">
-        <v>54.181550720314462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="C29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="15"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="15"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="15"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="15"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="15"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="15"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="15"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30520,7 +28379,7 @@
       <selection activeCell="CJ24" sqref="CJ24"/>
       <selection pane="topRight" activeCell="CJ24" sqref="CJ24"/>
       <selection pane="bottomLeft" activeCell="CJ24" sqref="CJ24"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30535,7 +28394,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -30546,7 +28405,7 @@
       </c>
     </row>
     <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
@@ -30555,7 +28414,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
         <v>23</v>
       </c>
@@ -30564,7 +28423,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
@@ -30574,7 +28433,7 @@
     </row>
     <row r="5" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
@@ -30590,7 +28449,7 @@
     </row>
     <row r="6" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="13" t="s">
         <v>29</v>
       </c>
@@ -30606,7 +28465,7 @@
     </row>
     <row r="7" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="13" t="s">
         <v>31</v>
       </c>
@@ -40927,14 +38786,14 @@
       </c>
     </row>
     <row r="14" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I15" t="s">

--- a/inst/extdata/hmw_analysis_data.xlsx
+++ b/inst/extdata/hmw_analysis_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="825" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="hmw_food" sheetId="1" r:id="rId1"/>
@@ -353,9 +353,6 @@
     <t>HMW.Region.code</t>
   </si>
   <si>
-    <t>kcal/day</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>kcal/day per person</t>
   </si>
 </sst>
 </file>
@@ -21638,8 +21638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21647,7 +21647,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.140625" style="35"/>
     <col min="62" max="64" width="9.140625" style="11"/>
   </cols>
@@ -21663,7 +21663,7 @@
         <v>68</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="29">
         <v>1960</v>
@@ -21860,7 +21860,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" s="31">
         <f t="array" ref="E2:BH8">TRANSPOSE('PS Data - Food Consumption'!C12:I67)</f>
@@ -22063,7 +22063,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" s="31">
         <v>2232.6342117058821</v>
@@ -22265,7 +22265,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E4" s="31">
         <v>2314.9779005121395</v>
@@ -22467,7 +22467,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E5" s="31">
         <v>2163.5854668235302</v>
@@ -22669,7 +22669,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E6" s="31">
         <v>2098.9607933000002</v>
@@ -22871,7 +22871,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E7" s="31">
         <v>2173.3073561230763</v>
@@ -23073,7 +23073,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E8" s="31">
         <v>2171.8971961223774</v>
@@ -23275,7 +23275,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E9" s="31">
         <f t="array" ref="E9:BH15">TRANSPOSE('PS Data - Food Consumption'!U12:AA67)</f>
@@ -23478,7 +23478,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E10" s="31">
         <v>3348.9513175588236</v>
@@ -23680,7 +23680,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E11" s="31">
         <v>3472.4668507682095</v>
@@ -23882,7 +23882,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E12" s="31">
         <v>3245.3782002352955</v>
@@ -24084,7 +24084,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E13" s="31">
         <v>3148.4411899500005</v>
@@ -24286,7 +24286,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E14" s="31">
         <v>3259.9610341846151</v>
@@ -24488,7 +24488,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E15" s="31">
         <v>3257.8457941835663</v>
@@ -24690,7 +24690,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E16" s="31">
         <f t="array" ref="E16:BH22">TRANSPOSE('PS Data - Food Consumption'!AM12:AS67)</f>
@@ -24893,7 +24893,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E17" s="31">
         <v>2870.5297007647059</v>
@@ -25095,7 +25095,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E18" s="31">
         <v>2976.4001578013226</v>
@@ -25297,7 +25297,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E19" s="31">
         <v>2781.7527430588243</v>
@@ -25499,7 +25499,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E20" s="31">
         <v>2698.6638771000003</v>
@@ -25701,7 +25701,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E21" s="31">
         <v>2794.2523150153843</v>
@@ -25903,7 +25903,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E22" s="31">
         <v>2792.4392521573427</v>
@@ -26105,7 +26105,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E23" s="31">
         <f t="array" ref="E23:BH29">TRANSPOSE('PS Data - Food Consumption'!L12:R67)</f>
@@ -26308,7 +26308,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E24" s="31">
         <v>1924.7377956470584</v>
@@ -26510,7 +26510,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E25" s="31">
         <v>2005.7744417738511</v>
@@ -26712,7 +26712,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E26" s="31">
         <v>1856.7850625882359</v>
@@ -26914,7 +26914,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E27" s="31">
         <v>1793.1861775333334</v>
@@ -27116,7 +27116,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E28" s="31">
         <v>1866.352636184615</v>
@@ -27318,7 +27318,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E29" s="31">
         <v>1864.9648596759907</v>
@@ -27520,7 +27520,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E30" s="31">
         <f t="array" ref="E30:BH36">TRANSPOSE('PS Data - Food Consumption'!AD12:AJ67)</f>
@@ -27723,7 +27723,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E31" s="32">
         <v>2749.6254223529409</v>
@@ -27925,7 +27925,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E32" s="32">
         <v>2865.3920596769303</v>
@@ -28127,7 +28127,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E33" s="32">
         <v>2652.5500894117658</v>
@@ -28329,7 +28329,7 @@
         <v>27</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E34" s="32">
         <v>2561.6945393333335</v>
@@ -28531,7 +28531,7 @@
         <v>29</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E35" s="32">
         <v>2666.2180516923072</v>
@@ -28733,7 +28733,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E36" s="32">
         <v>2664.235513822844</v>
@@ -28935,7 +28935,7 @@
         <v>19</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E37" s="32">
         <f t="array" ref="E37:BH43">TRANSPOSE('PS Data - Food Consumption'!AV12:BB67)</f>
@@ -29138,7 +29138,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E38" s="32">
         <v>2337.1816089999998</v>
@@ -29340,7 +29340,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E39" s="32">
         <v>2435.5832507253908</v>
@@ -29542,7 +29542,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E40" s="32">
         <v>2254.6675760000007</v>
@@ -29744,7 +29744,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E41" s="32">
         <v>2177.4403584333336</v>
@@ -29946,7 +29946,7 @@
         <v>29</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E42" s="32">
         <v>2266.2853439384612</v>
@@ -30148,7 +30148,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E43" s="32">
         <v>2264.6001867494174</v>
@@ -30432,15 +30432,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>64</v>
@@ -30448,7 +30448,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>65</v>
@@ -30456,7 +30456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>67</v>
@@ -30464,26 +30464,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -30495,7 +30495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -30522,7 +30522,7 @@
         <v>68</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="29">
         <v>1960</v>
@@ -30719,7 +30719,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="31">
         <f t="array" ref="E2:BH2">TRANSPOSE('PS Data - Human Power Outputs'!C5:C60)</f>
@@ -30922,7 +30922,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="31">
         <f t="array" ref="E3:BH3">TRANSPOSE('PS Data - Human Power Outputs'!E5:E60)</f>
@@ -31125,7 +31125,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="31">
         <f t="array" ref="E4:BH4">TRANSPOSE('PS Data - Human Power Outputs'!G5:G60)</f>
@@ -31328,7 +31328,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="31">
         <f t="array" ref="E5:BH5">TRANSPOSE('PS Data - Human Power Outputs'!I5:I60)</f>
@@ -31531,7 +31531,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="31">
         <f t="array" ref="E6:BH6">TRANSPOSE('PS Data - Human Power Outputs'!K5:K60)</f>
@@ -31734,7 +31734,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="31">
         <f t="array" ref="E7:BH7">TRANSPOSE('PS Data - Human Power Outputs'!M5:M60)</f>
@@ -31937,7 +31937,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="31">
         <f t="array" ref="E8:BH8">TRANSPOSE('PS Data - Human Power Outputs'!O5:O60)</f>
@@ -32140,7 +32140,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="31">
         <f t="array" ref="E9:BH9">TRANSPOSE('PS Data - Human Power Outputs'!D5:D60)</f>
@@ -32343,7 +32343,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="31">
         <f t="array" ref="E10:BH10">TRANSPOSE('PS Data - Human Power Outputs'!F5:F60)</f>
@@ -32546,7 +32546,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="31">
         <f t="array" ref="E11:BH11">TRANSPOSE('PS Data - Human Power Outputs'!H5:H60)</f>
@@ -32749,7 +32749,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="31">
         <f t="array" ref="E12:BH12">TRANSPOSE('PS Data - Human Power Outputs'!J5:J60)</f>
@@ -32952,7 +32952,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="31">
         <f t="array" ref="E13:BH13">TRANSPOSE('PS Data - Human Power Outputs'!L5:L60)</f>
@@ -33155,7 +33155,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="31">
         <f t="array" ref="E14:BH14">TRANSPOSE('PS Data - Human Power Outputs'!N5:N60)</f>
@@ -33358,7 +33358,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="31">
         <f t="array" ref="E15:BH15">TRANSPOSE('PS Data - Human Power Outputs'!P5:P60)</f>
@@ -33561,7 +33561,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="31">
         <f t="array" ref="E16:BH16">TRANSPOSE('PS Data - Human Power Outputs'!S5:S60)</f>
@@ -33764,7 +33764,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="31">
         <f t="array" ref="E17:BH17">TRANSPOSE('PS Data - Human Power Outputs'!U5:U60)</f>
@@ -33967,7 +33967,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="31">
         <f t="array" ref="E18:BH18">TRANSPOSE('PS Data - Human Power Outputs'!W5:W60)</f>
@@ -34170,7 +34170,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="31">
         <f t="array" ref="E19:BH19">TRANSPOSE('PS Data - Human Power Outputs'!Y5:Y60)</f>
@@ -34373,7 +34373,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="31">
         <f t="array" ref="E20:BH20">TRANSPOSE('PS Data - Human Power Outputs'!AA5:AA60)</f>
@@ -34576,7 +34576,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="31">
         <f t="array" ref="E21:BH21">TRANSPOSE('PS Data - Human Power Outputs'!AC5:AC60)</f>
@@ -34779,7 +34779,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="31">
         <f t="array" ref="E22:BH22">TRANSPOSE('PS Data - Human Power Outputs'!AE5:AE60)</f>
@@ -34982,7 +34982,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="31">
         <f t="array" ref="E23:BH23">TRANSPOSE('PS Data - Human Power Outputs'!T5:T60)</f>
@@ -35185,7 +35185,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="31">
         <f t="array" ref="E24:BH24">TRANSPOSE('PS Data - Human Power Outputs'!V5:V60)</f>
@@ -35388,7 +35388,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="31">
         <f t="array" ref="E25:BH25">TRANSPOSE('PS Data - Human Power Outputs'!X5:X60)</f>
@@ -35591,7 +35591,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="31">
         <f t="array" ref="E26:BH26">TRANSPOSE('PS Data - Human Power Outputs'!Z5:Z60)</f>
@@ -35794,7 +35794,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="31">
         <f t="array" ref="E27:BH27">TRANSPOSE('PS Data - Human Power Outputs'!AB5:AB60)</f>
@@ -35997,7 +35997,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="31">
         <f t="array" ref="E28:BH28">TRANSPOSE('PS Data - Human Power Outputs'!AD5:AD60)</f>
@@ -36200,7 +36200,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="31">
         <f t="array" ref="E29:BH29">TRANSPOSE('PS Data - Human Power Outputs'!AF5:AF60)</f>
